--- a/Copia de TIPS MOVITRONIA 5,6,7,8.xlsx
+++ b/Copia de TIPS MOVITRONIA 5,6,7,8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Estudio\Practica\movitronia-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919BDD87-A940-41C0-8041-6930F11F169E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E4FF0-6235-42F9-960B-8D21DEE1AC69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="382">
   <si>
     <t>Tips</t>
   </si>
@@ -787,9 +787,6 @@
     <t>La caja toracica cuida intestinos y el estomago</t>
   </si>
   <si>
-    <t>qué función cumple el tórax o caja torácica a brinda protección al corazón y a los pulmones b brinda movimiento c brinda energia</t>
-  </si>
-  <si>
     <t>sabias que el pulso normal de un adulto es de 60 a 100 latidos por minuto</t>
   </si>
   <si>
@@ -805,52 +802,34 @@
     <t>es el pulso normal en niños de 5 a 6 años es de 75 a 115 latidos por minuto</t>
   </si>
   <si>
-    <t>en niños y niñas entre 5 a 6 años el pulso normal es a 75 a 115 latidos por minuto b- 100 a 115 c 115 a 200</t>
-  </si>
-  <si>
     <t>sabias que a la edad de 7 a 9 años los latidos normales son entre 70 y 110</t>
   </si>
   <si>
     <t>en niños y niñas de 7 a 9 años los latidos normales son entre 70 y 110</t>
   </si>
   <si>
-    <t>los latidos entre 70 y 110 correspode a niños y niñas entre 10 y 11 años b solo niños de 5 años c niñas y niños entre 7 y 9 años</t>
-  </si>
-  <si>
     <t>sabias que desde los 10 años los latidos normales deberían ser los de un adulto 60 a 100 latidos por minuto.</t>
   </si>
   <si>
     <t>Niños mayores de 10 años ya tienen latidos de un adulto.</t>
   </si>
   <si>
-    <t>-en niños mayores de 10 años los latidos normales deberían ser a 60 a 100 latidos por minuto b 70 a 80 c 6 a 80</t>
-  </si>
-  <si>
     <t>los sentidos son el gusto, la visión, el olfato, el oído y el tacto</t>
   </si>
   <si>
     <t>El sentido de la visión es el mas importante</t>
   </si>
   <si>
-    <t>son cinco los sentidos que perciben nustro entorno estos son a el gusto, la visión, el olfato, el oído y el tacto b correr saltar caminar ver y oirc ver oir comer saltar atrapar</t>
-  </si>
-  <si>
     <t>sabias que en el cuerpo humano existen 3 tipos de huesos- planos-largos y cortos.</t>
   </si>
   <si>
     <t>Los huegos cortos son mas fuertes</t>
   </si>
   <si>
-    <t>que tipos de huesos existen en el cuerpo humano a largos y cortos b-son cinco los sentidos que perciben nuestro entornoc  huesos- planos-largos y cortos.</t>
-  </si>
-  <si>
     <t>los latidos q se producen en un minuto se denomina frecuencia cardiaca.</t>
   </si>
   <si>
     <t>Los latidos aumentan cuando corremos</t>
-  </si>
-  <si>
-    <t>que es la frecuencia cardiaca a los huesos del cuerpo b los músculos de los brazos c los latidos del corazón que se producen en un minuto</t>
   </si>
   <si>
     <t>se consideran también habilidades motrices básicas a los desplazamientos, saltos, giros, lanzamientos.</t>
@@ -1225,13 +1204,37 @@
     <t xml:space="preserve">8° BASICO </t>
   </si>
   <si>
-    <t>son habilidades motoras basicas. a giros-desplazamientos saltar y correr b dormir  c ver oir y sentir</t>
-  </si>
-  <si>
     <t>conos colchoneta cuerdas y balones corresponde a: a-la clase de matemáticas b-la clase de educación física c-la clase de lenguaje</t>
   </si>
   <si>
     <t>son continentes : a) america y egipto b)india y peru c) ninguna de las anteriores</t>
+  </si>
+  <si>
+    <t>qué función cumple el tórax o caja torácica: a brinda protección al corazón y a los pulmones b brinda movimiento c brinda energia</t>
+  </si>
+  <si>
+    <t>en niños y niñas entre 5 a 6 años el pulso normal es: a 75 a 115 latidos por minuto b- 100 a 115 c 115 a 200</t>
+  </si>
+  <si>
+    <t>los latidos entre 70 y 110 correspode :a niños y niñas entre 10 y 11 años b solo niños de 5 años c niñas y niños entre 7 y 9 años</t>
+  </si>
+  <si>
+    <t>en niños mayores de 10 años los latidos normales deberían ser: a 60 a 100 latidos por minuto b 70 a 80 c 6 a 80</t>
+  </si>
+  <si>
+    <t>son cinco los sentidos que perciben nustro entorno estos son: a el gusto, la visión, el olfato, el oído y el tacto b correr saltar caminar ver y oirc ver oir comer saltar atrapar</t>
+  </si>
+  <si>
+    <t>que tipos de huesos existen en el cuerpo humano: a largos y cortos b-son cinco los sentidos que perciben nuestro entornoc  huesos- planos-largos y cortos.</t>
+  </si>
+  <si>
+    <t>que es la frecuencia cardiaca: a los huesos del cuerpo b los músculos de los brazos c los latidos del corazón que se producen en un minuto</t>
+  </si>
+  <si>
+    <t>son habilidades motoras basicas: a giros-desplazamientos saltar y correr b dormir  c ver oir y sentir</t>
+  </si>
+  <si>
+    <t>los latidos entre 70 y 110 correspode: a niños y niñas entre 10 y 11 años b solo niños de 5 años c niñas y niños entre 7 y 9 años</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1362,6 +1365,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,15 +1649,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="110" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="84.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
@@ -1662,7 +1667,7 @@
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -2583,7 +2588,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>326</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>327</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>328</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>329</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>330</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>331</v>
       </c>
@@ -2703,7 +2708,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>332</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>333</v>
       </c>
@@ -2743,7 +2748,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>334</v>
       </c>
@@ -2763,7 +2768,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>335</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>336</v>
       </c>
@@ -2803,7 +2808,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>337</v>
       </c>
@@ -2823,7 +2828,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>338</v>
       </c>
@@ -2843,27 +2848,28 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
         <v>339</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>340</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>341</v>
       </c>
@@ -3086,7 +3092,7 @@
     <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4492,7 +4498,7 @@
     <row r="147" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A147" s="5"/>
       <c r="B147" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4503,13 +4509,13 @@
         <v>209</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>206</v>
@@ -4523,13 +4529,13 @@
         <v>210</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>204</v>
@@ -4549,7 +4555,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>205</v>
@@ -4569,7 +4575,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>206</v>
@@ -4589,7 +4595,7 @@
         <v>14</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>206</v>
@@ -4609,7 +4615,7 @@
         <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>206</v>
@@ -4629,7 +4635,7 @@
         <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>204</v>
@@ -4649,7 +4655,7 @@
         <v>14</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>204</v>
@@ -4669,7 +4675,7 @@
         <v>14</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>206</v>
@@ -4689,7 +4695,7 @@
         <v>14</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>205</v>
@@ -4709,7 +4715,7 @@
         <v>14</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>206</v>
@@ -4729,7 +4735,7 @@
         <v>14</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>206</v>
@@ -4829,7 +4835,7 @@
         <v>13</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>75</v>
@@ -4909,7 +4915,7 @@
         <v>13</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>75</v>
@@ -4920,16 +4926,16 @@
         <v>442</v>
       </c>
       <c r="B169" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>75</v>
@@ -4940,16 +4946,16 @@
         <v>443</v>
       </c>
       <c r="B170" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D170" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>75</v>
@@ -4960,16 +4966,16 @@
         <v>444</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>76</v>
@@ -4980,16 +4986,16 @@
         <v>445</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>258</v>
+        <v>376</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>75</v>
@@ -5000,16 +5006,16 @@
         <v>446</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>75</v>
@@ -5020,16 +5026,16 @@
         <v>447</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>75</v>
@@ -5040,16 +5046,16 @@
         <v>448</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>76</v>
@@ -5060,16 +5066,16 @@
         <v>449</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>75</v>
@@ -5080,16 +5086,16 @@
         <v>450</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>76</v>
@@ -5100,16 +5106,16 @@
         <v>451</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>76</v>
@@ -5120,16 +5126,16 @@
         <v>452</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>76</v>
@@ -5140,16 +5146,16 @@
         <v>453</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>83</v>
@@ -5160,16 +5166,16 @@
         <v>454</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>83</v>
@@ -5180,16 +5186,16 @@
         <v>455</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>75</v>
@@ -5200,16 +5206,16 @@
         <v>456</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>75</v>
@@ -5220,16 +5226,16 @@
         <v>457</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>83</v>
@@ -5240,16 +5246,16 @@
         <v>458</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>75</v>
@@ -5260,16 +5266,16 @@
         <v>459</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>76</v>
@@ -5280,16 +5286,16 @@
         <v>460</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>75</v>
@@ -5300,16 +5306,16 @@
         <v>461</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>76</v>
@@ -5320,16 +5326,16 @@
         <v>462</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>75</v>
@@ -5340,16 +5346,16 @@
         <v>463</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>76</v>
@@ -5360,16 +5366,16 @@
         <v>464</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>75</v>
@@ -5380,16 +5386,16 @@
         <v>465</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>76</v>
@@ -5400,16 +5406,16 @@
         <v>466</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>76</v>
@@ -5420,16 +5426,16 @@
         <v>467</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>75</v>
@@ -5440,16 +5446,16 @@
         <v>468</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>76</v>
@@ -5460,16 +5466,16 @@
         <v>469</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>76</v>
@@ -5480,16 +5486,16 @@
         <v>470</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>75</v>
@@ -5500,16 +5506,16 @@
         <v>471</v>
       </c>
       <c r="B198" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>83</v>
@@ -5520,16 +5526,16 @@
         <v>472</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>83</v>
@@ -5540,16 +5546,16 @@
         <v>473</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>76</v>
@@ -5560,16 +5566,16 @@
         <v>474</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>76</v>
@@ -5580,13 +5586,13 @@
         <v>475</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>75</v>
@@ -5597,16 +5603,16 @@
         <v>476</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>75</v>
@@ -5617,16 +5623,16 @@
         <v>477</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>75</v>
@@ -5637,16 +5643,16 @@
         <v>478</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>83</v>
@@ -5657,16 +5663,16 @@
         <v>479</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>75</v>
@@ -5677,16 +5683,16 @@
         <v>480</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>76</v>
@@ -5697,16 +5703,16 @@
         <v>481</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>83</v>
@@ -5717,16 +5723,16 @@
         <v>482</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>76</v>
@@ -5895,7 +5901,7 @@
     <row r="219" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A219" s="5"/>
       <c r="B219" s="6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5906,13 +5912,13 @@
         <v>209</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>206</v>
@@ -5926,13 +5932,13 @@
         <v>210</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>204</v>
@@ -5952,7 +5958,7 @@
         <v>14</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>205</v>
@@ -5972,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>206</v>
@@ -5992,7 +5998,7 @@
         <v>14</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>206</v>
@@ -6012,7 +6018,7 @@
         <v>14</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>206</v>
@@ -6032,7 +6038,7 @@
         <v>14</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>204</v>
@@ -6052,7 +6058,7 @@
         <v>14</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>204</v>
@@ -6072,7 +6078,7 @@
         <v>14</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>206</v>
@@ -6092,7 +6098,7 @@
         <v>14</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>205</v>
@@ -6112,7 +6118,7 @@
         <v>14</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>206</v>
@@ -6132,7 +6138,7 @@
         <v>14</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>206</v>
@@ -6232,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>75</v>
@@ -6312,7 +6318,7 @@
         <v>13</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>75</v>
@@ -6323,16 +6329,16 @@
         <v>512</v>
       </c>
       <c r="B241" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="D241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>75</v>
@@ -6343,16 +6349,16 @@
         <v>513</v>
       </c>
       <c r="B242" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D242" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>75</v>
@@ -6363,16 +6369,16 @@
         <v>514</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>76</v>
@@ -6383,16 +6389,16 @@
         <v>515</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>258</v>
+        <v>376</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>75</v>
@@ -6403,16 +6409,16 @@
         <v>516</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>75</v>
@@ -6423,16 +6429,16 @@
         <v>517</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>75</v>
@@ -6443,16 +6449,16 @@
         <v>518</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>76</v>
@@ -6463,16 +6469,16 @@
         <v>519</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>75</v>
@@ -6483,16 +6489,16 @@
         <v>520</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>76</v>
@@ -6503,16 +6509,16 @@
         <v>521</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>76</v>
@@ -6523,16 +6529,16 @@
         <v>522</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>76</v>
@@ -6543,16 +6549,16 @@
         <v>523</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>83</v>
@@ -6563,16 +6569,16 @@
         <v>524</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>83</v>
@@ -6583,16 +6589,16 @@
         <v>525</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>75</v>
@@ -6603,16 +6609,16 @@
         <v>526</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>75</v>
@@ -6623,16 +6629,16 @@
         <v>527</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>83</v>
@@ -6643,16 +6649,16 @@
         <v>528</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>75</v>
@@ -6663,16 +6669,16 @@
         <v>529</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>76</v>
@@ -6683,16 +6689,16 @@
         <v>530</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>75</v>
@@ -6703,16 +6709,16 @@
         <v>531</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>76</v>
@@ -6723,16 +6729,16 @@
         <v>532</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>75</v>
@@ -6743,16 +6749,16 @@
         <v>533</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>76</v>
@@ -6763,16 +6769,16 @@
         <v>534</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>75</v>
@@ -6783,16 +6789,16 @@
         <v>535</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>76</v>
@@ -6803,16 +6809,16 @@
         <v>536</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>76</v>
@@ -6823,16 +6829,16 @@
         <v>537</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>75</v>
@@ -6843,16 +6849,16 @@
         <v>538</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>76</v>
@@ -6863,16 +6869,16 @@
         <v>539</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>76</v>
@@ -6883,16 +6889,16 @@
         <v>540</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>75</v>
@@ -6903,16 +6909,16 @@
         <v>541</v>
       </c>
       <c r="B270" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E270" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>83</v>
@@ -6923,16 +6929,16 @@
         <v>542</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>83</v>
@@ -6943,16 +6949,16 @@
         <v>543</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>76</v>
@@ -6963,16 +6969,16 @@
         <v>544</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>76</v>
@@ -6983,13 +6989,13 @@
         <v>545</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>75</v>
@@ -7000,16 +7006,16 @@
         <v>546</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>75</v>
@@ -7020,16 +7026,16 @@
         <v>547</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>75</v>
@@ -7040,16 +7046,16 @@
         <v>548</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>83</v>
@@ -7060,16 +7066,16 @@
         <v>549</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>75</v>
@@ -7080,16 +7086,16 @@
         <v>550</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>76</v>
@@ -7100,16 +7106,16 @@
         <v>551</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>83</v>
@@ -7120,16 +7126,16 @@
         <v>552</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>76</v>

--- a/Copia de TIPS MOVITRONIA 5,6,7,8.xlsx
+++ b/Copia de TIPS MOVITRONIA 5,6,7,8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Estudio\Practica\movitronia-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E4FF0-6235-42F9-960B-8D21DEE1AC69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C0930-B85C-43AF-BAF0-04882E31D858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="15" windowWidth="28725" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="382">
   <si>
     <t>Tips</t>
   </si>
@@ -1649,16 +1649,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="B254" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="110" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="84.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1"/>
@@ -5591,6 +5591,9 @@
       <c r="C202" s="8" t="s">
         <v>331</v>
       </c>
+      <c r="D202" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E202" s="8" t="s">
         <v>332</v>
       </c>
@@ -6993,6 +6996,9 @@
       </c>
       <c r="C274" s="8" t="s">
         <v>331</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E274" s="8" t="s">
         <v>332</v>
